--- a/SP_Sklad/TempLate/RouteList.xlsx
+++ b/SP_Sklad/TempLate/RouteList.xlsx
@@ -51,7 +51,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="17" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial Cyr"/>
@@ -67,21 +67,6 @@
       <b/>
       <sz val="10"/>
       <color indexed="18"/>
-      <name val="Times New Roman Cyr"/>
-      <family val="1"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color indexed="18"/>
-      <name val="Times New Roman Cyr"/>
-      <family val="1"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <color indexed="53"/>
       <name val="Times New Roman Cyr"/>
       <family val="1"/>
       <charset val="204"/>
@@ -362,35 +347,33 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="14" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="11" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="9" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="14" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="14" fontId="11" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="9" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="2" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -399,49 +382,46 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="7" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="5" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="7" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="5" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="12" fontId="9" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="12" fontId="7" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="9" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="11" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="14" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="9" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="14" fontId="11" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -814,11 +794,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Лист1"/>
-  <dimension ref="B1:F98"/>
+  <dimension ref="B1:F13"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B17" sqref="B17:D17"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -831,196 +811,98 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:6" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="27" t="s">
+      <c r="B1" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
     </row>
     <row r="2" spans="2:6" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
     </row>
     <row r="3" spans="2:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="8"/>
-      <c r="C3" s="8"/>
-      <c r="D3" s="8"/>
-    </row>
-    <row r="4" spans="2:6" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="10" t="s">
+      <c r="B3" s="6"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+    </row>
+    <row r="4" spans="2:6" s="7" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B4" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="11" t="e">
+      <c r="C4" s="9" t="e">
         <f>CONCATENATE("з "&amp;XLRPARAMS_StartDate," по "&amp;XLRPARAMS_EndDate)</f>
         <v>#NAME?</v>
       </c>
-      <c r="E4" s="12"/>
-      <c r="F4" s="12"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="10"/>
     </row>
     <row r="5" spans="2:6" ht="7.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="6" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="31" t="s">
+      <c r="B6" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="32"/>
-      <c r="D6" s="24"/>
+      <c r="C6" s="29"/>
+      <c r="D6" s="22"/>
     </row>
     <row r="7" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="28" t="e">
+      <c r="B7" s="25" t="e">
         <f>Drivers_DriverName</f>
         <v>#NAME?</v>
       </c>
-      <c r="C7" s="29"/>
-      <c r="D7" s="30"/>
+      <c r="C7" s="26"/>
+      <c r="D7" s="27"/>
     </row>
     <row r="8" spans="2:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="13"/>
-      <c r="C8" s="25" t="e">
+      <c r="B8" s="11"/>
+      <c r="C8" s="23" t="e">
         <f>Routes_RouteName</f>
         <v>#NAME?</v>
       </c>
-      <c r="D8" s="15"/>
+      <c r="D8" s="13"/>
     </row>
     <row r="9" spans="2:6" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="13"/>
-      <c r="C9" s="14"/>
-      <c r="D9" s="15"/>
+      <c r="B9" s="11"/>
+      <c r="C9" s="12"/>
+      <c r="D9" s="13"/>
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B10" s="21"/>
-      <c r="C10" s="22" t="s">
+      <c r="B10" s="19"/>
+      <c r="C10" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="D10" s="23" t="s">
+      <c r="D10" s="21" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B11" s="18"/>
-      <c r="C11" s="19" t="e">
+      <c r="B11" s="16"/>
+      <c r="C11" s="17" t="e">
         <f>MatList_MatName</f>
         <v>#NAME?</v>
       </c>
-      <c r="D11" s="20" t="e">
+      <c r="D11" s="18" t="e">
         <f>MatList_Amount</f>
         <v>#NAME?</v>
       </c>
     </row>
     <row r="12" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B12" s="7"/>
-      <c r="C12" s="17" t="s">
+      <c r="B12" s="5"/>
+      <c r="C12" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="D12" s="16" t="s">
+      <c r="D12" s="14" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="13" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B13" s="4"/>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
-    </row>
-    <row r="14" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B14" s="4"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="5"/>
-    </row>
-    <row r="15" spans="2:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B15" s="2"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-    </row>
-    <row r="16" spans="2:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="17" spans="2:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B17" s="26"/>
-      <c r="C17" s="26"/>
-      <c r="D17" s="26"/>
-    </row>
-    <row r="18" spans="2:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="19" spans="2:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="20" spans="2:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="21" spans="2:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="22" spans="2:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="23" spans="2:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="24" spans="2:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="25" spans="2:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="26" spans="2:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="27" spans="2:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="28" spans="2:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="29" spans="2:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="30" spans="2:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="31" spans="2:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="32" spans="2:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="33" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="34" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="35" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="36" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="37" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="38" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="39" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="40" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="41" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="42" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="43" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="44" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="45" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="46" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="47" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="48" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="49" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="50" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="51" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="52" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="53" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="54" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="55" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="56" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="57" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="58" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="59" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="60" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="61" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="62" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="63" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="64" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="65" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="66" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="67" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="68" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="69" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="70" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="71" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="72" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="73" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="74" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="75" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="76" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="77" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="78" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="79" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="80" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="81" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="82" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="83" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="84" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="85" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="86" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="87" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="88" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="89" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="90" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="91" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="92" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="93" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="94" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="95" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="96" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="97" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="98" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+    </row>
   </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="B17:D17"/>
+  <mergeCells count="3">
     <mergeCell ref="B1:D1"/>
     <mergeCell ref="B7:D7"/>
     <mergeCell ref="B6:C6"/>
